--- a/biology/Zoologie/Jason_Piers_Wilton_Hall/Jason_Piers_Wilton_Hall.xlsx
+++ b/biology/Zoologie/Jason_Piers_Wilton_Hall/Jason_Piers_Wilton_Hall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jason Piers Wilton Hall est un entomologiste américain.
 </t>
@@ -511,12 +523,14 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jason Piers Wilton Hall a fait ses études de 1990 à 1993 au département de zoologie du Saint John's College de l'University d'Oxford. Il a commencé comme chercheur assistant au département d'entomologie de l'Université de Floride de 1994 à 1999, a été  post-doctorant puis chercheur au département d'entomologie du National Museum of Natural History de Washington.
 En 2005 il devient président de l'Entomological Society of Washington.
 C'est un spécialiste reconnu des papillons néo tropicaux et en particulier des Riodinidae
-En son honneur, Theope pseudopedias se nomme en anglais Hall's Theope[1]
+En son honneur, Theope pseudopedias se nomme en anglais Hall's Theope
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Expéditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a effectué douze expéditions en Équateur, trois au Mexique, et une dans les pays suivants : Belize, Bolivie, Brésil, Costa Rica, Guatemala, Honduras, Pérou, Trinité-et-Tobago et Venezuela ainsi que Kenya, Australie, Salomon, Malaisie, Philippines, Papouasie-Nouvelle-Guinée, Taïwan.
 1993 Oxford and Cambridge Butterfly Expedition to Ecuador 1993
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Revision of the Genus Theope, 1999.
 A Phylogenetic Revision of the Napaeina, 2005.
@@ -613,7 +631,9 @@
           <t>Travaux sur les genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parmi les Riodininae:
 Archaeonympha Hall, 1998.
@@ -652,7 +672,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Riodinidae
